--- a/ESTUDOS/CodigoInteligente/Material de leitura/DownLoad1/08+CADASTRO+DAS+OPÇÕES+ESPECIF+MON&TV.xlsx
+++ b/ESTUDOS/CodigoInteligente/Material de leitura/DownLoad1/08+CADASTRO+DAS+OPÇÕES+ESPECIF+MON&TV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DBrizes Celestino Serviços - ME\UDEMY\Configurador de Produtos\MATERIAL DE APOIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rogério\Documents\Workspace\ESTUDOS\CodigoInteligente\Material de leitura\DownLoad1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0221BB07-7D3F-4060-96C8-27426850E342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A7602F-5162-4CDF-95CA-4B77BE714EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12200" xr2:uid="{8A27DD40-0B84-4F36-A3D1-233F6A01A0CD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8A27DD40-0B84-4F36-A3D1-233F6A01A0CD}"/>
   </bookViews>
   <sheets>
     <sheet name="SBS MON" sheetId="15" r:id="rId1"/>
@@ -655,6 +655,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>121274</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>44774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D55DF404-8A6C-A148-9CBA-585ED1EDD8DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7753350" y="10496550"/>
+          <a:ext cx="12135474" cy="6305874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -956,24 +1005,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC46FC1-61AC-47F4-A15B-09D488F16053}">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.8984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.19921875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.8984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.796875" style="2"/>
-    <col min="10" max="12" width="8.796875" style="1"/>
-    <col min="13" max="13" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="26.90625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="23.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" style="2"/>
+    <col min="10" max="12" width="8.81640625" style="1"/>
+    <col min="13" max="13" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>141</v>
       </c>
@@ -994,7 +1045,7 @@
       </c>
       <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>143</v>
       </c>
@@ -1014,7 +1065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="10" t="s">
         <v>142</v>
@@ -1032,7 +1083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="10" t="s">
         <v>142</v>
@@ -1050,7 +1101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="15"/>
       <c r="B5" s="10" t="s">
         <v>142</v>
@@ -1068,7 +1119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="10" t="s">
         <v>142</v>
@@ -1086,7 +1137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="10" t="s">
         <v>142</v>
@@ -1104,7 +1155,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="10" t="s">
         <v>142</v>
@@ -1122,7 +1173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="10" t="s">
         <v>142</v>
@@ -1140,7 +1191,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
       <c r="B10" s="10" t="s">
         <v>142</v>
@@ -1158,7 +1209,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="10" t="s">
         <v>142</v>
@@ -1176,7 +1227,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="10" t="s">
         <v>142</v>
@@ -1194,7 +1245,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="10" t="s">
         <v>142</v>
@@ -1212,7 +1263,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>144</v>
       </c>
@@ -1232,7 +1283,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="10" t="s">
         <v>142</v>
@@ -1250,7 +1301,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="10" t="s">
         <v>142</v>
@@ -1268,7 +1319,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="10" t="s">
         <v>142</v>
@@ -1286,7 +1337,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="10" t="s">
         <v>142</v>
@@ -1304,7 +1355,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="10" t="s">
         <v>142</v>
@@ -1322,7 +1373,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="15"/>
       <c r="B20" s="10" t="s">
         <v>142</v>
@@ -1340,7 +1391,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
       <c r="B21" s="10" t="s">
         <v>142</v>
@@ -1358,7 +1409,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="16"/>
       <c r="B22" s="10" t="s">
         <v>142</v>
@@ -1376,7 +1427,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>145</v>
       </c>
@@ -1396,7 +1447,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
       <c r="B24" s="10" t="s">
         <v>142</v>
@@ -1414,7 +1465,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="15"/>
       <c r="B25" s="10" t="s">
         <v>142</v>
@@ -1434,7 +1485,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="15"/>
       <c r="B26" s="10" t="s">
         <v>142</v>
@@ -1454,7 +1505,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="15"/>
       <c r="B27" s="10" t="s">
         <v>142</v>
@@ -1474,7 +1525,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
       <c r="B28" s="10" t="s">
         <v>142</v>
@@ -1494,7 +1545,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="15"/>
       <c r="B29" s="10" t="s">
         <v>142</v>
@@ -1512,7 +1563,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="15"/>
       <c r="B30" s="10" t="s">
         <v>142</v>
@@ -1530,7 +1581,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="10" t="s">
         <v>142</v>
@@ -1548,7 +1599,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="15"/>
       <c r="B32" s="10" t="s">
         <v>142</v>
@@ -1566,7 +1617,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="15"/>
       <c r="B33" s="10" t="s">
         <v>142</v>
@@ -1584,7 +1635,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="15"/>
       <c r="B34" s="10" t="s">
         <v>142</v>
@@ -1602,7 +1653,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="15"/>
       <c r="B35" s="10" t="s">
         <v>142</v>
@@ -1620,7 +1671,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="16"/>
       <c r="B36" s="10" t="s">
         <v>142</v>
@@ -1638,7 +1689,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
         <v>146</v>
       </c>
@@ -1658,7 +1709,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="15"/>
       <c r="B38" s="10" t="s">
         <v>142</v>
@@ -1676,7 +1727,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="15"/>
       <c r="B39" s="10" t="s">
         <v>142</v>
@@ -1694,7 +1745,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="15"/>
       <c r="B40" s="10" t="s">
         <v>142</v>
@@ -1712,7 +1763,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="15"/>
       <c r="B41" s="10" t="s">
         <v>142</v>
@@ -1730,7 +1781,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="15"/>
       <c r="B42" s="10" t="s">
         <v>142</v>
@@ -1748,7 +1799,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="15"/>
       <c r="B43" s="10" t="s">
         <v>142</v>
@@ -1766,7 +1817,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="15"/>
       <c r="B44" s="10" t="s">
         <v>142</v>
@@ -1784,7 +1835,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="15"/>
       <c r="B45" s="10" t="s">
         <v>142</v>
@@ -1802,7 +1853,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="15"/>
       <c r="B46" s="10" t="s">
         <v>142</v>
@@ -1820,7 +1871,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="15"/>
       <c r="B47" s="10" t="s">
         <v>142</v>
@@ -1838,7 +1889,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="15"/>
       <c r="B48" s="10" t="s">
         <v>142</v>
@@ -1856,7 +1907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="15"/>
       <c r="B49" s="10" t="s">
         <v>142</v>
@@ -1874,7 +1925,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="15"/>
       <c r="B50" s="10" t="s">
         <v>142</v>
@@ -1892,7 +1943,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="15"/>
       <c r="B51" s="10" t="s">
         <v>142</v>
@@ -1910,7 +1961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="15"/>
       <c r="B52" s="10" t="s">
         <v>142</v>
@@ -1928,7 +1979,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="15"/>
       <c r="B53" s="10" t="s">
         <v>142</v>
@@ -1946,7 +1997,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="15"/>
       <c r="B54" s="10" t="s">
         <v>142</v>
@@ -1964,7 +2015,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="16"/>
       <c r="B55" s="10" t="s">
         <v>142</v>
@@ -1982,7 +2033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="14" t="s">
         <v>147</v>
       </c>
@@ -2002,7 +2053,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="15"/>
       <c r="B57" s="10" t="s">
         <v>142</v>
@@ -2020,7 +2071,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="16"/>
       <c r="B58" s="10" t="s">
         <v>142</v>
@@ -2038,7 +2089,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="14" t="s">
         <v>148</v>
       </c>
@@ -2058,7 +2109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="15"/>
       <c r="B60" s="10" t="s">
         <v>142</v>
@@ -2076,7 +2127,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="15"/>
       <c r="B61" s="10" t="s">
         <v>142</v>
@@ -2094,7 +2145,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="15"/>
       <c r="B62" s="10" t="s">
         <v>142</v>
@@ -2112,7 +2163,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="15"/>
       <c r="B63" s="10" t="s">
         <v>142</v>
@@ -2130,7 +2181,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="15"/>
       <c r="B64" s="10" t="s">
         <v>142</v>
@@ -2148,7 +2199,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="15"/>
       <c r="B65" s="10" t="s">
         <v>142</v>
@@ -2166,7 +2217,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="15"/>
       <c r="B66" s="10" t="s">
         <v>142</v>
@@ -2184,7 +2235,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="16"/>
       <c r="B67" s="10" t="s">
         <v>142</v>
@@ -2204,15 +2255,16 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A59:A67"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A22"/>
     <mergeCell ref="A23:A36"/>
     <mergeCell ref="A37:A55"/>
     <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A67"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>